--- a/创意库/备忘录.xlsx
+++ b/创意库/备忘录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27540" windowHeight="14415" activeTab="1"/>
+    <workbookView windowWidth="23640" windowHeight="14415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>名称</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>https://twitter.com/rilemtwit</t>
+  </si>
+  <si>
+    <t>MetaSounds</t>
+  </si>
+  <si>
+    <t>虚幻引擎次时代音效系统</t>
+  </si>
+  <si>
+    <t>Nanite</t>
+  </si>
+  <si>
+    <t>虚拟化多边形几何系统</t>
+  </si>
+  <si>
+    <t>Lumen</t>
+  </si>
+  <si>
+    <t>光源</t>
   </si>
 </sst>
 </file>
@@ -1166,13 +1184,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
@@ -1271,6 +1289,39 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
